--- a/Excel-XLSX/UN-CAM.xlsx
+++ b/Excel-XLSX/UN-CAM.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>h8cSQ3</t>
+    <t>Mb77DS</t>
   </si>
   <si>
     <t>1994</t>
@@ -1413,8 +1413,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -1481,8 +1481,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
+      <c r="V3" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1549,8 +1549,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -1617,8 +1617,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1685,8 +1685,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>34</v>
+      <c r="V6" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1753,8 +1753,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
+      <c r="V7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1821,8 +1821,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>34</v>
+      <c r="V8" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1889,8 +1889,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>34</v>
+      <c r="V9" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1957,8 +1957,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>34</v>
+      <c r="V10" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -2025,8 +2025,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>34</v>
+      <c r="V11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -2093,8 +2093,8 @@
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>34</v>
+      <c r="V12" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -2161,8 +2161,8 @@
       <c r="U13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>34</v>
+      <c r="V13" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -2229,8 +2229,8 @@
       <c r="U14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>34</v>
+      <c r="V14" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -2297,8 +2297,8 @@
       <c r="U15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>34</v>
+      <c r="V15" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -2365,8 +2365,8 @@
       <c r="U16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>34</v>
+      <c r="V16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -2433,8 +2433,8 @@
       <c r="U17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>34</v>
+      <c r="V17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -2501,8 +2501,8 @@
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>34</v>
+      <c r="V18" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -2569,8 +2569,8 @@
       <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>34</v>
+      <c r="V19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -2637,8 +2637,8 @@
       <c r="U20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>34</v>
+      <c r="V20" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -2705,8 +2705,8 @@
       <c r="U21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>34</v>
+      <c r="V21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -2773,8 +2773,8 @@
       <c r="U22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>34</v>
+      <c r="V22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2841,8 +2841,8 @@
       <c r="U23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>34</v>
+      <c r="V23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2909,8 +2909,8 @@
       <c r="U24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>34</v>
+      <c r="V24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -2977,8 +2977,8 @@
       <c r="U25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>34</v>
+      <c r="V25" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -3045,8 +3045,8 @@
       <c r="U26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>34</v>
+      <c r="V26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -3113,8 +3113,8 @@
       <c r="U27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>34</v>
+      <c r="V27" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -3181,8 +3181,8 @@
       <c r="U28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>34</v>
+      <c r="V28" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -3249,8 +3249,8 @@
       <c r="U29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>34</v>
+      <c r="V29" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -3317,8 +3317,8 @@
       <c r="U30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>34</v>
+      <c r="V30" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -3385,8 +3385,8 @@
       <c r="U31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>34</v>
+      <c r="V31" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -3453,8 +3453,8 @@
       <c r="U32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>34</v>
+      <c r="V32" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -3521,8 +3521,8 @@
       <c r="U33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>34</v>
+      <c r="V33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -3589,8 +3589,8 @@
       <c r="U34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>34</v>
+      <c r="V34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -3657,8 +3657,8 @@
       <c r="U35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>34</v>
+      <c r="V35" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -3725,8 +3725,8 @@
       <c r="U36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>34</v>
+      <c r="V36" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -3793,8 +3793,8 @@
       <c r="U37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>34</v>
+      <c r="V37" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -3861,8 +3861,8 @@
       <c r="U38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>34</v>
+      <c r="V38" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -3929,8 +3929,8 @@
       <c r="U39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>34</v>
+      <c r="V39" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -3997,8 +3997,8 @@
       <c r="U40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>34</v>
+      <c r="V40" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -4065,8 +4065,8 @@
       <c r="U41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>34</v>
+      <c r="V41" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -4133,8 +4133,8 @@
       <c r="U42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>34</v>
+      <c r="V42" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -4201,8 +4201,8 @@
       <c r="U43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>34</v>
+      <c r="V43" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -4269,8 +4269,8 @@
       <c r="U44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>34</v>
+      <c r="V44" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
@@ -4337,8 +4337,8 @@
       <c r="U45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>34</v>
+      <c r="V45" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -4405,8 +4405,8 @@
       <c r="U46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>34</v>
+      <c r="V46" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
@@ -4473,8 +4473,8 @@
       <c r="U47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>34</v>
+      <c r="V47" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -4541,8 +4541,8 @@
       <c r="U48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>34</v>
+      <c r="V48" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -4609,8 +4609,8 @@
       <c r="U49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>34</v>
+      <c r="V49" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
@@ -4677,8 +4677,8 @@
       <c r="U50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>34</v>
+      <c r="V50" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -4745,8 +4745,8 @@
       <c r="U51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>34</v>
+      <c r="V51" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
@@ -4813,8 +4813,8 @@
       <c r="U52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>34</v>
+      <c r="V52" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
@@ -4881,8 +4881,8 @@
       <c r="U53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>34</v>
+      <c r="V53" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -4949,8 +4949,8 @@
       <c r="U54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>34</v>
+      <c r="V54" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -5017,8 +5017,8 @@
       <c r="U55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>34</v>
+      <c r="V55" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
@@ -5085,8 +5085,8 @@
       <c r="U56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>34</v>
+      <c r="V56" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
@@ -5153,8 +5153,8 @@
       <c r="U57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>34</v>
+      <c r="V57" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
@@ -5221,8 +5221,8 @@
       <c r="U58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>34</v>
+      <c r="V58" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -5289,8 +5289,8 @@
       <c r="U59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>34</v>
+      <c r="V59" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
@@ -5357,8 +5357,8 @@
       <c r="U60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>34</v>
+      <c r="V60" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
@@ -5425,8 +5425,8 @@
       <c r="U61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>34</v>
+      <c r="V61" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
@@ -5493,8 +5493,8 @@
       <c r="U62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>34</v>
+      <c r="V62" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
@@ -5561,8 +5561,8 @@
       <c r="U63" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>34</v>
+      <c r="V63" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
@@ -5629,8 +5629,8 @@
       <c r="U64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>34</v>
+      <c r="V64" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65">
@@ -5697,8 +5697,8 @@
       <c r="U65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>34</v>
+      <c r="V65" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66">
@@ -5765,8 +5765,8 @@
       <c r="U66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>34</v>
+      <c r="V66" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
@@ -5833,8 +5833,8 @@
       <c r="U67" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>34</v>
+      <c r="V67" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
@@ -5901,8 +5901,8 @@
       <c r="U68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>34</v>
+      <c r="V68" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
@@ -5969,8 +5969,8 @@
       <c r="U69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>34</v>
+      <c r="V69" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70">
@@ -6037,8 +6037,8 @@
       <c r="U70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>34</v>
+      <c r="V70" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
@@ -6105,8 +6105,8 @@
       <c r="U71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>34</v>
+      <c r="V71" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
@@ -6173,8 +6173,8 @@
       <c r="U72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>34</v>
+      <c r="V72" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
@@ -6241,8 +6241,8 @@
       <c r="U73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>34</v>
+      <c r="V73" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74">
@@ -6309,8 +6309,8 @@
       <c r="U74" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>34</v>
+      <c r="V74" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75">
@@ -6377,8 +6377,8 @@
       <c r="U75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>34</v>
+      <c r="V75" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
@@ -6445,8 +6445,8 @@
       <c r="U76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>34</v>
+      <c r="V76" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
@@ -6513,8 +6513,8 @@
       <c r="U77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>34</v>
+      <c r="V77" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
@@ -6717,8 +6717,8 @@
       <c r="U80" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>34</v>
+      <c r="V80" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81">
@@ -6785,8 +6785,8 @@
       <c r="U81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>34</v>
+      <c r="V81" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
@@ -6853,8 +6853,8 @@
       <c r="U82" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>34</v>
+      <c r="V82" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
@@ -6921,8 +6921,8 @@
       <c r="U83" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>34</v>
+      <c r="V83" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84">
@@ -6989,8 +6989,8 @@
       <c r="U84" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>34</v>
+      <c r="V84" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="85">
@@ -7057,8 +7057,8 @@
       <c r="U85" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>34</v>
+      <c r="V85" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86">
@@ -7125,8 +7125,8 @@
       <c r="U86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>34</v>
+      <c r="V86" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
@@ -7193,8 +7193,8 @@
       <c r="U87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>34</v>
+      <c r="V87" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
@@ -7261,8 +7261,8 @@
       <c r="U88" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>34</v>
+      <c r="V88" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89">
@@ -7329,8 +7329,8 @@
       <c r="U89" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>34</v>
+      <c r="V89" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90">
@@ -7397,8 +7397,8 @@
       <c r="U90" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>34</v>
+      <c r="V90" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="91">
@@ -7465,8 +7465,8 @@
       <c r="U91" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>34</v>
+      <c r="V91" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92">
@@ -7601,8 +7601,8 @@
       <c r="U93" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>34</v>
+      <c r="V93" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
@@ -7669,8 +7669,8 @@
       <c r="U94" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>34</v>
+      <c r="V94" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -7737,8 +7737,8 @@
       <c r="U95" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>34</v>
+      <c r="V95" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96">
@@ -7805,8 +7805,8 @@
       <c r="U96" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>34</v>
+      <c r="V96" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97">
@@ -7873,8 +7873,8 @@
       <c r="U97" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>34</v>
+      <c r="V97" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="98">
@@ -7941,8 +7941,8 @@
       <c r="U98" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>34</v>
+      <c r="V98" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="99">
@@ -8009,8 +8009,8 @@
       <c r="U99" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>34</v>
+      <c r="V99" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="100">
@@ -8077,8 +8077,8 @@
       <c r="U100" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>34</v>
+      <c r="V100" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="101">
@@ -8145,8 +8145,8 @@
       <c r="U101" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>34</v>
+      <c r="V101" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="102">
@@ -8213,8 +8213,8 @@
       <c r="U102" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>34</v>
+      <c r="V102" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="103">
@@ -8281,8 +8281,8 @@
       <c r="U103" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>34</v>
+      <c r="V103" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="104">
@@ -8349,8 +8349,8 @@
       <c r="U104" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>34</v>
+      <c r="V104" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="105">
@@ -8417,8 +8417,8 @@
       <c r="U105" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>34</v>
+      <c r="V105" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="106">
@@ -8485,8 +8485,8 @@
       <c r="U106" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>34</v>
+      <c r="V106" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="107">
@@ -8553,8 +8553,8 @@
       <c r="U107" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>34</v>
+      <c r="V107" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="108">
@@ -8621,8 +8621,8 @@
       <c r="U108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>34</v>
+      <c r="V108" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="109">
@@ -8689,8 +8689,8 @@
       <c r="U109" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>34</v>
+      <c r="V109" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="110">
@@ -8757,8 +8757,8 @@
       <c r="U110" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>34</v>
+      <c r="V110" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="111">
@@ -8825,8 +8825,8 @@
       <c r="U111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>34</v>
+      <c r="V111" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="112">
@@ -8893,8 +8893,8 @@
       <c r="U112" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>34</v>
+      <c r="V112" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="113">
@@ -8961,8 +8961,8 @@
       <c r="U113" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>34</v>
+      <c r="V113" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="114">
@@ -9029,8 +9029,8 @@
       <c r="U114" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>34</v>
+      <c r="V114" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="115">
@@ -9097,8 +9097,8 @@
       <c r="U115" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>34</v>
+      <c r="V115" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="116">
@@ -9165,8 +9165,8 @@
       <c r="U116" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>34</v>
+      <c r="V116" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="117">
@@ -9233,8 +9233,8 @@
       <c r="U117" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>34</v>
+      <c r="V117" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="118">
@@ -9301,8 +9301,8 @@
       <c r="U118" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>34</v>
+      <c r="V118" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="119">
@@ -9369,8 +9369,8 @@
       <c r="U119" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>34</v>
+      <c r="V119" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="120">
@@ -9437,8 +9437,8 @@
       <c r="U120" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>34</v>
+      <c r="V120" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="121">
@@ -9505,8 +9505,8 @@
       <c r="U121" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>34</v>
+      <c r="V121" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="122">
@@ -9573,8 +9573,8 @@
       <c r="U122" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>34</v>
+      <c r="V122" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="123">
@@ -9641,8 +9641,8 @@
       <c r="U123" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>34</v>
+      <c r="V123" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="124">
@@ -9709,8 +9709,8 @@
       <c r="U124" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>34</v>
+      <c r="V124" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="125">
@@ -9777,8 +9777,8 @@
       <c r="U125" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>34</v>
+      <c r="V125" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="126">
@@ -9845,8 +9845,8 @@
       <c r="U126" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>34</v>
+      <c r="V126" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="127">
@@ -9913,8 +9913,8 @@
       <c r="U127" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>34</v>
+      <c r="V127" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="128">
@@ -9981,8 +9981,8 @@
       <c r="U128" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>34</v>
+      <c r="V128" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="129">
@@ -10049,8 +10049,8 @@
       <c r="U129" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>34</v>
+      <c r="V129" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="130">
@@ -10117,8 +10117,8 @@
       <c r="U130" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>34</v>
+      <c r="V130" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="131">
@@ -10185,8 +10185,8 @@
       <c r="U131" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>34</v>
+      <c r="V131" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="132">
@@ -10253,8 +10253,8 @@
       <c r="U132" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>34</v>
+      <c r="V132" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="133">
@@ -10321,8 +10321,8 @@
       <c r="U133" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>34</v>
+      <c r="V133" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="134">
@@ -10389,8 +10389,8 @@
       <c r="U134" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>34</v>
+      <c r="V134" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="135">
@@ -10593,8 +10593,8 @@
       <c r="U137" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>34</v>
+      <c r="V137" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="138">
@@ -10661,8 +10661,8 @@
       <c r="U138" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>34</v>
+      <c r="V138" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="139">
@@ -10729,8 +10729,8 @@
       <c r="U139" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>34</v>
+      <c r="V139" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="140">
@@ -10797,8 +10797,8 @@
       <c r="U140" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>34</v>
+      <c r="V140" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="141">
@@ -10865,8 +10865,8 @@
       <c r="U141" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>34</v>
+      <c r="V141" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="142">
@@ -10933,8 +10933,8 @@
       <c r="U142" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>34</v>
+      <c r="V142" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="143">
@@ -11001,8 +11001,8 @@
       <c r="U143" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>34</v>
+      <c r="V143" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="144">
@@ -11069,8 +11069,8 @@
       <c r="U144" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>34</v>
+      <c r="V144" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="145">
@@ -11137,8 +11137,8 @@
       <c r="U145" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>34</v>
+      <c r="V145" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="146">
@@ -11205,8 +11205,8 @@
       <c r="U146" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>34</v>
+      <c r="V146" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="147">
@@ -11273,8 +11273,8 @@
       <c r="U147" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>34</v>
+      <c r="V147" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="148">

--- a/Excel-XLSX/UN-CAM.xlsx
+++ b/Excel-XLSX/UN-CAM.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Mb77DS</t>
+    <t>56GrD8</t>
   </si>
   <si>
     <t>1964</t>
@@ -11534,7 +11534,7 @@
         <v>32</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O151" s="2" t="s">
         <v>34</v>
